--- a/data-raw/metadata_generated_by_flowwest/releases-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/releases-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBF31E3-4639-5246-8DB7-CBC94C12A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E4E8C8-D0BA-E549-B586-9C424DCA6138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7080" yWindow="-16260" windowWidth="37660" windowHeight="20580" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="-19120" windowWidth="28800" windowHeight="16380" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>cone</t>
-  </si>
-  <si>
-    <t>site</t>
   </si>
   <si>
     <t>mark_sample_row_id</t>
@@ -135,6 +132,99 @@
   <si>
     <t>excluded</t>
   </si>
+  <si>
+    <t xml:space="preserve">unique identifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark recapture trial identifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of traps fished throughout efficienty trial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark code applied to released fish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">date mark code applied to fish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time mark code applied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location fish released from for mark recapture trial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">date fish released </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time fish released </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of measured fish - each measured fish makes up one row in the release fish table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">numbe of mortalities of marked fish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of fish released </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of fish marked for release  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total number of fish recaptured </t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes if the cone is in full or half cone configuration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean turbidity at realease </t>
+  </si>
+  <si>
+    <t>Run of fish used for efficiency trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes if this mark recapture trial shold be exclided from analyiss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if gates are in or out at release time </t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of fish </t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>number of traps</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +246,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +265,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -203,6 +305,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -590,7 +704,7 @@
   <dimension ref="A1:AMG16384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,141 +766,452 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="7">
+        <v>34533</v>
+      </c>
+      <c r="M6" s="7">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="7">
+        <v>34533</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -49847,19 +50272,19 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1020" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C1020 C1:C17" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1020" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E1020 E1:E17" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1020" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F1020 F1:F17" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H1048576 H1:H17" xr:uid="{0E975802-AAEB-481A-9F6C-1EEB8BBDECAC}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
